--- a/properties_data_0.xlsx
+++ b/properties_data_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ref: SBRE-0126498</t>
+          <t xml:space="preserve"> SBRE-0126498</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://portalnow.azureedge.net/images/SBRE-0126498/1819714_441c1bf66b63f9fdca3b3310a27fcc6f911ca7df@2x.jpg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -530,7 +530,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ref: SBRE-0152806</t>
+          <t xml:space="preserve"> SBRE-0152806</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://portalnow.azureedge.net/images/SBRE-0152806/7295607_720c8ac1eb6bd8df0d7aeeadd1a2e8b93d88ae46@2x.jpg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -577,7 +577,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ref: SBRE-0132375</t>
+          <t xml:space="preserve"> SBRE-0132375</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -612,12 +612,247 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://portalnow.azureedge.net/images/SBRE-0132375/1836476_21b2c01fa8d90b2c7a21504f8ecdc357772eeae4@2x.jpg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Castellón</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0181092</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Se vende local comercial en c/centro comercial bonaire edif. el mundo (Aldaia) por 2.000.000€ de 2.867m²</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un local comercial en Aldaia? Excelente oportunidad de adquirir en propiedad este local comercial ubicado en la localidad de Aldaia, provincia de Valencia. Dispone de buenas comunicaciones y proximidad a Valencia capital. Hablamos de un local comercial en 2 plantas en edificio denominado “Mundo” situado en los accesos del Centro Comercial “Bonaire”. Se trata de una única finca registral. El local se sitúa en la planta primera y segunda del edificio, teniendo acceso ambas por escalera general de comunicación y ascensor. La 1ª planta tiene una superficie de 908,84 m2 y la 2ª 1.958,31 m2, teniendo esta una parte en bruto. Los locales son diáfanos y disponen únicamente de suelo de vinilo y aseos. El edificio consta de 3 plantas, estando ocupadas las plantas bajas por un gimnasio y una tienda de muebles. El resto de locales se encuentra vacío. El Centro Comercial "Bonaire" se encuentra enclavado junto a la autovía A-3 (Madrid-Valencia) -km 345 y corredor Sur (CV-33) en Zona Parque Comercial y de Ocio BONAIRE, parque de medianas y grandes superficies (Cuenta con unas 205 tiendas y una superficie total de 135.000 m2.), siendo el mas grande de la Comunitat Valenciana. Dispone de hipermercado, galería comercial, grandes almacenes, restauración, servicios completos, ocio y entretenimiento, hoteles, oficinas, parking,... Las dotaciones y equipamientos en el entorno son abundantes. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal (www.portalnow.com) es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.867</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.000.000 €</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0181092/3447394_d81d60e965131775d28b10c981b84f458554ccc2@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0151955</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Local comercial a la venta por 1.900.500€ de 267m² en c/camino bajo, Armilla</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar Local Comercial en Armilla? Excelente oportunidad de adquirir en propiedad este Local Comercial con una superficie de 266,63 m² ubicado en la localidad de Armilla, provincia de Granada. Dispone de buenos accesos y está bien comunicada. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.900.500 €</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0151955/7038470_c7b205fbb1f75c9bca1394e03a41d8fb0f451f32@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Granada</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0150524</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Descubre local comercial en calle cl bulevar central cañadas en Alhama de Murcia por 1.601.000€ de 6.785m² en perfectas condiciones</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>¿Quieres invertir en Alhama de Murcia? Excelente oportunidad de adquirir en propiedad una gran parte del Centro Comercial Al Kassar ubicado en el Condado de Alhama Ressort de Murcia. Más de 6.000 m² de locales comerciales, en una superficie de 25.500 m² con todos los servicios. Además, dispone de más de 8.000 m² de parking en superficie. Una inversión muy recomendable. Se ubica en Alhama de Murcia, una localidad y municipio español situado en la Región de Murcia, en el sureste de España. Está ubicado a unos 30 km al suroeste de la ciudad de Murcia y es parte de la comarca del Bajo Guadalentín. Entre sus principales atractivos turísticos destacan las Termas Romanas, un complejo de baños termales romanos bien conservados y que datan del siglo I d.C., el Castillo de Alhama, una fortaleza construida en el siglo XI por los musulmanes y que fue reformada por los cristianos en el siglo XV, el Parque Regional Sierra Espuña, un parque natural de gran belleza que cuenta con una gran variedad de flora y fauna, así como con numerosos senderos para practicar senderismo y otros deportes de naturaleza. ¿Quieres más información de este local comercial? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.601.000 €</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0150524/7922948_1ff553b05e33ccf031574b58d533e2ab6f70f239@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Murcia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0129347</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adquiere local comercial por 1.411.000€ de 4.299m² en c/ermita de san juan (Navalcarnero)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Venta de local comercial en Avenida Ermita de San Juan en Navalcarnero (Madrid) con 4.298m² en perfectas condiciones ¿Quieres comprar Local Comercial en Navalcarnero? Excelente oportunidad de adquirir en propiedad este Local Comercial con una superficie de 4.298m² ubicado en la localidad de Navalcarnero, provincia de Madrid. Ubicado en una zona de desarrollo al noreste del casco urbano, delimitada al sureste por autovía A5 a la que se vincula el desarrollo de este barrio y al suroeste por Polígono Industrial Alparrache. Uso predominante del edificio: comercial. Además, dispone de salida de emergencia en lindero posterior y de terraza descubierta para maquinaria de climatización y de anejo almacén en planta sótano destinado a cuartos de instalaciones. Es un local muy grande, con muchas posibilidades y metros cuadrados para tener amplitud y espacio suficiente para desarrollar cualquier tipo de actividad comercial. No lo pienses más y no pierdas esta excelente oportunidad de adquirir este local, ya sea para uso propio o como inversión para alquilarlo. ¿Estás interesado/a y quieres más información de este local comercial? ¿Te gustaría realizar una visita? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.299</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.411.000 €</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0129347/1651709_9a3b010865d7ff0e7f5dbacbac4e163ce14f0120@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Madrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0092172</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Se vende local comercial por 1.411.000€ con 508m² en calle planeta venus en Parla</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un conjunto de locales comerciales en Parla? ¡No pierdas la oportunidad de invertir en estos magníficos 12 locales comerciales ubicados en el nuevo barrio de Parla, en la provincia de Madrid! Este conjunto de locales comerciales se encuentra en un edificio consolidado al 100%, lo que significa que tendrás la tranquilidad de adquirir una propiedad sólida y bien construida. Cada local tiene una superficie a partir de 165,77m², lo que te permitirá tener un amplio espacio para llevar a cabo tus proyectos comerciales. Además, el edificio cuenta con buenos accesos y una excelente ubicación, lo que te garantiza una buena afluencia de clientes potenciales. No esperes más para invertir en estos locales comerciales, ya que esta es una oportunidad única en el mercado inmobiliario de la zona. Contáctanos hoy mismo para obtener más información y para programar una visita al lugar. ¡No te arrepentirás de hacer esta inversión estratégica! Podemos acceder al centro de Madrid tanto por carretera ( a tan sólo 24,8 km por la A-42) y por la red de transporte público de la Comunidad ( ferrocarril, autobuses), dónde disfrutar de todos los servicios, equipamientos y atractivos de la capital. ¿Quieres más información de este local comercial? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.411.000 €</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0092172/8020476_97f7f6858e6a638ebee56aa31c729da76eba7bca@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Madrid</t>
         </is>
       </c>
     </row>

--- a/properties_data_0.xlsx
+++ b/properties_data_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,380 +479,6876 @@
           <t>Provincia</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ciudad</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBRE-0126498</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adquiere local comercial en calle poligono cabnillas en Cabanillas del Campo por 2.990.000€ de 6.706m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>¿Te gustaría tener tu propio negocio/oficina? O tal vez, ¿te gustaría invertir? Nosotros te ofrecemos una oportunidad única Edificio de tres plantas con una superficie de 6.705,7m2 ubicado en la localidad de Cabanillas del Campo, provincia de Guadalajara. Se trata de un edificio moderno, muy luminoso, con fachada acristalada. Además, cuenta con parking subterráneo y dos ascensores y escalera. El edificio se encuentra en el polígono Cabanillas de la localidad. Se trata de una zona industrial. El Polígono Cabanillas está ubicado en una zona bien conectada en términos de comunicaciones. Está cerca de la Autovía del Nordeste (A-2) y de la Autovía de la Alcarria (A-2/A-40), lo que permite un fácil acceso desde Madrid y otros puntos de la Península Ibérica. También se encuentra cerca de la Autovía de la Sagra (A-42), que conecta Toledo con Madrid. En cuanto al transporte público, hay varias líneas de autobuses que conectan el Polígono Cabanillas con Guadalajara y otras ciudades cercanas, como Azuqueca de Henares y Alcalá de Henares. Además, existe una estación de tren en Cabanillas del Campo, que ofrece servicios de cercanías a Madrid y Guadalajara. ¿Te gustaría recibir más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.706</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.990.000 €</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://portalnow.azureedge.net/images/SBRE-0126498/1819714_441c1bf66b63f9fdca3b3310a27fcc6f911ca7df@2x.jpg</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guadalajara</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBRE-0152806</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adquiere local comercial en calle prolongación de la c/lepanto. edificio larrosa 43-a en San Fulgencio por 2.598.600€ de 429m² en condiciones de restauración</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>¿Quieres comprar un edificio en obra parada en San Fulgencio? Se trata de un edificio, ubicado en la localidad de San Fulgencio, provincia de Alicante. Se encuentra en obra parada, algunas zonas se encuentran en fase de estructura, mientras que otras están terminadas. Se estima que el porcentaje de obra completada es del 59,10%. Se trata de un bloque residencial de 3 alturas sobre rasante y 1 bajo rasante, que cuenta con dos ascensores. El edificio tiene algunos activos ya terminados y otros en fase de construcción. En este caso, se encuentran a la venta un total de 24 viviendas ya terminadas, siendo 9 de ellas de 1 dormitorio, 12 pisos son de 2 dormitorios, y por último 3 viviendas son de 3 dormitorios. Además en el bloque también se han proyectado 97 plazas de garaje y 13 trasteros. En fase de construcción se encuentran todavía un total de 72 activos dentro del edificio. El entorno de San Fulgencio es principalmente rural, con campos de cultivo de cítricos y hortalizas. El municipio se encuentra cerca de la costa del Mediterráneo, a unos 10 km al sur de la ciudad de Elche y a unos 20 km al norte de la ciudad de Torrevieja. En las cercanías de San Fulgencio se encuentran varias playas y zonas turísticas de interés, como la playa de La Marina, la playa de Guardamar del Segura, el Parque Natural de las Lagunas de La Mata y Torrevieja y el Parque Natural El Hondo. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.598.600 €</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://portalnow.azureedge.net/images/SBRE-0152806/7295607_720c8ac1eb6bd8df0d7aeeadd1a2e8b93d88ae46@2x.jpg</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alicante</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBRE-0132375</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Venta de local comercial por 2.548.000€ con 2.964m² en c/villarreal 1 (Castellón de la Plana/Castelló de la Plana)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>¿Quieres comprar un local comercial en Castellón de la Plana? Excelente oportunidad de adquirir en propiedad este local comercial en bruto, ubicado en la ciudad de Castellón de la Plana, capital de provincia. Local en planta baja y sótano de y sótano, en edificio residencial denominado “Ray Ribalta. Edificio Bulevar”. Situado en zona de reciente expansión en Castellón. Se trata de una única finca registral unida y con varios accesos a pie de calle tanto por la calle Villarreal como por la calle Lucena. El local, se encuentra en bruto. La planta sótano está habilitada como garaje y preparada para comunicarse con el garaje general del edificio. El edificio donde se ubica el local consta de 10 plantas sobre rasante y 4 bajo rasante que corresponde a los garajes. Dispone de una ubicación inmejorable, en el centro de la ciudad, muy cercano al inmueble, se pueden encontrar diversos servicios y establecimientos comerciales, como tiendas, bancos, restaurantes y bares. También se encuentran algunas instituciones públicas, como el Registro Civil y la Delegación de Hacienda. Además, se encuentra en una zona bien comunicada por transporte público, con varias paradas de autobús cercanas y la estación de tren de Castellón de la Plana a unos 10 minutos a pie. 300 m² en planta baja se encuentran arrendados. ¿Te interesa y quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.964</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.548.000 €</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://portalnow.azureedge.net/images/SBRE-0132375/1836476_21b2c01fa8d90b2c7a21504f8ecdc357772eeae4@2x.jpg</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Castellón</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBRE-0181092</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Se vende local comercial en c/centro comercial bonaire edif. el mundo (Aldaia) por 2.000.000€ de 2.867m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>¿Quieres comprar un local comercial en Aldaia? Excelente oportunidad de adquirir en propiedad este local comercial ubicado en la localidad de Aldaia, provincia de Valencia. Dispone de buenas comunicaciones y proximidad a Valencia capital. Hablamos de un local comercial en 2 plantas en edificio denominado “Mundo” situado en los accesos del Centro Comercial “Bonaire”. Se trata de una única finca registral. El local se sitúa en la planta primera y segunda del edificio, teniendo acceso ambas por escalera general de comunicación y ascensor. La 1ª planta tiene una superficie de 908,84 m2 y la 2ª 1.958,31 m2, teniendo esta una parte en bruto. Los locales son diáfanos y disponen únicamente de suelo de vinilo y aseos. El edificio consta de 3 plantas, estando ocupadas las plantas bajas por un gimnasio y una tienda de muebles. El resto de locales se encuentra vacío. El Centro Comercial "Bonaire" se encuentra enclavado junto a la autovía A-3 (Madrid-Valencia) -km 345 y corredor Sur (CV-33) en Zona Parque Comercial y de Ocio BONAIRE, parque de medianas y grandes superficies (Cuenta con unas 205 tiendas y una superficie total de 135.000 m2.), siendo el mas grande de la Comunitat Valenciana. Dispone de hipermercado, galería comercial, grandes almacenes, restauración, servicios completos, ocio y entretenimiento, hoteles, oficinas, parking,... Las dotaciones y equipamientos en el entorno son abundantes. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal (www.portalnow.com) es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.867</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.000.000 €</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://portalnow.azureedge.net/images/SBRE-0181092/3447394_d81d60e965131775d28b10c981b84f458554ccc2@2x.jpg</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valencia</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBRE-0151955</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Local comercial a la venta por 1.900.500€ de 267m² en c/camino bajo, Armilla</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>¿Quieres comprar Local Comercial en Armilla? Excelente oportunidad de adquirir en propiedad este Local Comercial con una superficie de 266,63 m² ubicado en la localidad de Armilla, provincia de Granada. Dispone de buenos accesos y está bien comunicada. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.900.500 €</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://portalnow.azureedge.net/images/SBRE-0151955/7038470_c7b205fbb1f75c9bca1394e03a41d8fb0f451f32@2x.jpg</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Granada</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBRE-0150524</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Descubre local comercial en calle cl bulevar central cañadas en Alhama de Murcia por 1.601.000€ de 6.785m² en perfectas condiciones</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>¿Quieres invertir en Alhama de Murcia? Excelente oportunidad de adquirir en propiedad una gran parte del Centro Comercial Al Kassar ubicado en el Condado de Alhama Ressort de Murcia. Más de 6.000 m² de locales comerciales, en una superficie de 25.500 m² con todos los servicios. Además, dispone de más de 8.000 m² de parking en superficie. Una inversión muy recomendable. Se ubica en Alhama de Murcia, una localidad y municipio español situado en la Región de Murcia, en el sureste de España. Está ubicado a unos 30 km al suroeste de la ciudad de Murcia y es parte de la comarca del Bajo Guadalentín. Entre sus principales atractivos turísticos destacan las Termas Romanas, un complejo de baños termales romanos bien conservados y que datan del siglo I d.C., el Castillo de Alhama, una fortaleza construida en el siglo XI por los musulmanes y que fue reformada por los cristianos en el siglo XV, el Parque Regional Sierra Espuña, un parque natural de gran belleza que cuenta con una gran variedad de flora y fauna, así como con numerosos senderos para practicar senderismo y otros deportes de naturaleza. ¿Quieres más información de este local comercial? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.785</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.601.000 €</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://portalnow.azureedge.net/images/SBRE-0150524/7922948_1ff553b05e33ccf031574b58d533e2ab6f70f239@2x.jpg</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Murcia</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBRE-0129347</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Adquiere local comercial por 1.411.000€ de 4.299m² en c/ermita de san juan (Navalcarnero)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Venta de local comercial en Avenida Ermita de San Juan en Navalcarnero (Madrid) con 4.298m² en perfectas condiciones ¿Quieres comprar Local Comercial en Navalcarnero? Excelente oportunidad de adquirir en propiedad este Local Comercial con una superficie de 4.298m² ubicado en la localidad de Navalcarnero, provincia de Madrid. Ubicado en una zona de desarrollo al noreste del casco urbano, delimitada al sureste por autovía A5 a la que se vincula el desarrollo de este barrio y al suroeste por Polígono Industrial Alparrache. Uso predominante del edificio: comercial. Además, dispone de salida de emergencia en lindero posterior y de terraza descubierta para maquinaria de climatización y de anejo almacén en planta sótano destinado a cuartos de instalaciones. Es un local muy grande, con muchas posibilidades y metros cuadrados para tener amplitud y espacio suficiente para desarrollar cualquier tipo de actividad comercial. No lo pienses más y no pierdas esta excelente oportunidad de adquirir este local, ya sea para uso propio o como inversión para alquilarlo. ¿Estás interesado/a y quieres más información de este local comercial? ¿Te gustaría realizar una visita? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.299</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.411.000 €</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://portalnow.azureedge.net/images/SBRE-0129347/1651709_9a3b010865d7ff0e7f5dbacbac4e163ce14f0120@2x.jpg</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBRE-0092172</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Se vende local comercial por 1.411.000€ con 508m² en calle planeta venus en Parla</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>¿Quieres comprar un conjunto de locales comerciales en Parla? ¡No pierdas la oportunidad de invertir en estos magníficos 12 locales comerciales ubicados en el nuevo barrio de Parla, en la provincia de Madrid! Este conjunto de locales comerciales se encuentra en un edificio consolidado al 100%, lo que significa que tendrás la tranquilidad de adquirir una propiedad sólida y bien construida. Cada local tiene una superficie a partir de 165,77m², lo que te permitirá tener un amplio espacio para llevar a cabo tus proyectos comerciales. Además, el edificio cuenta con buenos accesos y una excelente ubicación, lo que te garantiza una buena afluencia de clientes potenciales. No esperes más para invertir en estos locales comerciales, ya que esta es una oportunidad única en el mercado inmobiliario de la zona. Contáctanos hoy mismo para obtener más información y para programar una visita al lugar. ¡No te arrepentirás de hacer esta inversión estratégica! Podemos acceder al centro de Madrid tanto por carretera ( a tan sólo 24,8 km por la A-42) y por la red de transporte público de la Comunidad ( ferrocarril, autobuses), dónde disfrutar de todos los servicios, equipamientos y atractivos de la capital. ¿Quieres más información de este local comercial? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.411.000 €</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://portalnow.azureedge.net/images/SBRE-0092172/8020476_97f7f6858e6a638ebee56aa31c729da76eba7bca@2x.jpg</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110689</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Se oferta casa adosada por 1.500€ con 80m² y una habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca en Viator</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Eexcelente oportunidad de invertir en esta construcción parada que se encuentra en la localidad de Viator, provincia de Almería. Esta previsto que el bloque residencial conste de 92 viviendas, 120 plazas de garaje, 62 trasteros, 13 oficinas y 1 local comercial. Viator se encuentra estratégicamente ubicado en el sureste de España, cerca de la costa mediterránea. Esto significa que los residentes tienen fácil acceso a hermosas playas, como las de Roquetas de Mar y Almería, así como a lugares turísticos como el Parque Natural de Cabo de Gata-Níjar. Cuenta con buenas conexiones de transporte, incluyendo una estación de tren y acceso a importantes carreteras, como la A-92, que conecta con el resto de la provincia y el país. Esto facilita los desplazamientos a otras ciudades y destinos cercanos. A pesar de ser una localidad de tamaño moderado, Viator cuenta con una buena infraestructura de servicios y comodidades para sus residentes. Hay supermercados, tiendas, restaurantes, escuelas y centros de salud, lo que facilita la vida diaria. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110689/8875154_e4858157a61f999d773404abc439bd65ed0268cc@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110690</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Casa adosada en venta en c/carretera almeria, sector r-7, parcela 5.1 (huerca en Viator por 1.500€ con 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110690/6935651_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110647</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Casa adosada en venta en c/carretera almeria, sector r-7, parcela 5.1 (huerca, Viator, por 1.500€ con 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110647/6938317_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110648</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta por 1.500€ con 80m² y 1 habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca en Viator</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110648/9070631_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110661</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Casa adosada disponible por 1.500€ con 80m² y 1 habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca (Viator)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110661/6937429_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110662</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Se oferta casa adosada por 1.500€ con 80m² y una habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca en Viator</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110662/9066394_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110684</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Se oferta casa adosada por 1.700€ de 80m² y una habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca, Viator</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110684/6935890_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110687</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Descubre casa adosada por 1.700€ de 80m² y una habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca, Viator</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110687/9066934_2f6f2f80d85081a2db82a50ebb16795ee8bea595@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110632</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta por 1.700€ con 80m² y 1 habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca en Viator</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110632/9070987_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110633</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta por 1.700€ de 80m² y una habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca (Viator)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110633/6939124_fe93ca887ecb80b61036c298acf1b0f96753bc33@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110639</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta por 1.700€ de 80m² y 1 habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca (Viator)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110639/6938978_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110642</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Se vende casa adosada en calle carretera almeria, sector r-7, parcela 5.1 (huerca, Viator, por 1.700€ de 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110642/6938623_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110645</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta en calle carretera almeria, sector r-7, parcela 5.1 (huerca (Viator) por 1.700€ de 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110645/9070671_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110692</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Casa adosada disponible por 1.800€ con 80m² y 1 habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca en Viator</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110692/6935625_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110693</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Venta de casa adosada en c/carretera almeria, sector r-7, parcela 5.1 (huerca (Viator) por 1.800€ de 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110693/6935619_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110650</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta por 1.800€ de 80m² y 1 habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca, Viator</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110650/6938352_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110651</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Compra casa adosada en c/carretera almeria, sector r-7, parcela 5.1 (huerca, Viator, por 1.800€ con 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110651/6938362_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110664</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Se vende casa adosada en c/carretera almeria, sector r-7, parcela 5.1 (huerca (Viator) por 1.800€ con 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110664/9066220_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110665</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Casa adosada disponible por 1.800€ con 80m² y 1 habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca en Viator</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110665/6937053_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110678</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Se oferta casa adosada por 1.800€ con 80m² y 1 habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca, Viator</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110678/6936123_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110612</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Casa adosada disponible por 1.900€ con 80m² y una habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca en Viator</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110612/6935367_efaac58f8d0573bc0de8e507a949aa73bc4d0b30@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110613</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Casa adosada disponible por 1.900€ de 80m² y 1 habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca, Viator</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110613/6935373_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110622</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Se vende casa adosada por 1.900€ de 80m² y 1 habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca en Viator</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110622/6943735_fe93ca887ecb80b61036c298acf1b0f96753bc33@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110623</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Se vende casa adosada en c/carretera almeria, sector r-7, parcela 5.1 (huerca (Viator) por 1.900€ con 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110623/6939225_fe93ca887ecb80b61036c298acf1b0f96753bc33@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110626</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Casa adosada disponible en c/carretera almeria, sector r-7, parcela 5.1 (huerca (Viator) por 1.900€ con 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110626/6939246_fe93ca887ecb80b61036c298acf1b0f96753bc33@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110627</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Casa adosada en venta en c/carretera almeria, sector r-7, parcela 5.1 (huerca, Viator, por 1.900€ de 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110627/6939251_fe93ca887ecb80b61036c298acf1b0f96753bc33@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110630</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Casa adosada disponible en calle carretera almeria, sector r-7, parcela 5.1 (huerca (Viator) por 1.900€ con 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110630/6939145_fe93ca887ecb80b61036c298acf1b0f96753bc33@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110607</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Se vende casa adosada en c/carretera almeria, sector r-7, parcela 5.1 (huerca en Viator por 2.300€ de 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110607/9071562_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110610</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Casa adosada disponible en calle carretera almeria, sector r-7, parcela 5.1 (huerca (Viator) por 2.300€ con 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110610/9071575_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110611</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Venta de casa adosada por 2.300€ de 80m² y 1 habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca, Viator</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110611/6935362_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110682</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Venta de casa adosada en c/carretera almeria, sector r-7, parcela 5.1 (huerca en Viator por 2.300€ con 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110682/6935880_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110685</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Descubre casa adosada en c/carretera almeria, sector r-7, parcela 5.1 (huerca, Viator, por 2.300€ de 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110685/6935904_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110688</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta por 2.300€ con 80m² y 1 habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca, Viator</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110688/6935666_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110691</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Adquiere casa adosada por 2.300€ de 80m² y una habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca, Viator</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110691/6935646_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110644</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Descubre casa adosada en c/carretera almeria, sector r-7, parcela 5.1 (huerca en Viator por 2.200€ con 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110644/6938613_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110652</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta en calle carretera almeria, sector r-7, parcela 5.1 (huerca, Viator, por 2.200€ con 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110652/6937776_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110655</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Se vende casa adosada por 2.200€ con 80m² y una habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca (Viator)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110655/6937797_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110658</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Casa adosada en venta en c/carretera almeria, sector r-7, parcela 5.1 (huerca, Viator, por 2.200€ con 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110658/6937405_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110666</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta en c/carretera almeria, sector r-7, parcela 5.1 (huerca (Viator) por 2.200€ con 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110666/6937048_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110669</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Se oferta casa adosada en calle carretera almeria, sector r-7, parcela 5.1 (huerca en Viator por 2.200€ de 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110669/6937029_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110672</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Se vende casa adosada en calle carretera almeria, sector r-7, parcela 5.1 (huerca (Viator) por 2.200€ de 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110672/6936735_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110616</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Compra casa adosada por 2.300€ de 80m² y 1 habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca, Viator</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110616/6943880_fe93ca887ecb80b61036c298acf1b0f96753bc33@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110617</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Se oferta casa adosada por 2.300€ de 80m² y una habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca (Viator)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110617/6943707_fe93ca887ecb80b61036c298acf1b0f96753bc33@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110620</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Descubre casa adosada en c/carretera almeria, sector r-7, parcela 5.1 (huerca, Viator, por 2.300€ con 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110620/6943725_fe93ca887ecb80b61036c298acf1b0f96753bc33@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110621</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta por 2.300€ de 80m² y una habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca, Viator</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110621/6943730_fe93ca887ecb80b61036c298acf1b0f96753bc33@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110624</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta por 2.300€ con 80m² y una habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca en Viator</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110624/9071366_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110625</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Descubre casa adosada por 2.300€ con 80m² y 1 habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca en Viator</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110625/9071048_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110628</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Se oferta casa adosada por 2.300€ con 80m² y 1 habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca en Viator</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110628/6939256_fe93ca887ecb80b61036c298acf1b0f96753bc33@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110629</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Casa adosada disponible en calle carretera almeria, sector r-7, parcela 5.1 (huerca, Viator, por 2.300€ de 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110629/6939154_fe93ca887ecb80b61036c298acf1b0f96753bc33@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110634</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Casa adosada disponible en c/carretera almeria, sector r-7, parcela 5.1 (huerca, Viator, por 2.300€ de 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110634/6939119_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110635</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta en calle carretera almeria, sector r-7, parcela 5.1 (huerca (Viator) por 2.300€ de 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110635/9070952_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110640</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Se oferta casa adosada por 2.300€ con 80m² y una habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca (Viator)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110640/9071242_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110643</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Descubre casa adosada por 2.300€ de 80m² y 1 habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca (Viator)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110643/9071302_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110646</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Adquiere casa adosada en calle carretera almeria, sector r-7, parcela 5.1 (huerca, Viator, por 2.300€ de 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110646/9070644_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110649</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Se oferta casa adosada por 2.300€ con 80m² y 1 habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca en Viator</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110649/9065654_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110654</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Se oferta casa adosada por 2.300€ de 80m² y 1 habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca, Viator</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110654/6937790_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110657</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Compra casa adosada por 2.300€ con 80m² y 1 habitacion en calle carretera almeria, sector r-7, parcela 5.1 (huerca, Viator</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>¿Te interesa en invertir en la localidad de Viator, Almería? Te ofrecemos ésta promoción en construcción situada en el municipio de Viator, en la provincia de Almería. Se trata de un edificio de tres alturas sobre rasante destinadas a locales comerciales, viviendas, trasteros y plazas de garajes. Poseen amplias zonas comunes y se encuentra en una zona comercial tranquila, rodeada por establecimientos de similares características. Cuenta con fácil acceso a la carretera y otros nudos de comunicación, cercana a la Base Militar Álvarez de Sotomayor. Aunque Viator no es una localidad demasiado grande, cuenta con los servicios y comodidades básicas para cubrir las necesidades diarias. Hay tiendas, supermercados, restaurantes, escuelas y otros servicios que te permitirán llevar una vida cómoda. Además se encuentra cerca de la costa mediterránea, a unos 10 kilómetros al norte de la ciudad de Almería. A nivel comunicaciones y trasporte, el municipio se encuentra próximo a la autovía A-92, que conecta con otras ciudades y pueblos de Andalucía. También está cerca del aeropuerto de Almería, lo que facilita los viajes nacionales e internacionales. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110657/9066325_b4f61c60ead7d5edcb42c4b7caf4919a4fbece27@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110674</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Se oferta casa adosada por 2.300€ con 80m² y 1 habitacion en c/carretera almeria, sector r-7, parcela 5.1 (huerca (Viator)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110674/6936745_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0110677</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta en c/carretera almeria, sector r-7, parcela 5.1 (huerca en Viator por 2.300€ con 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>¿Estas interesado en comprar una vivienda en Viator (Almería)? Esta es tu excelente oportunidad de invertir en esta vivienda que se encuentra en la localidad de Viator, provincia de Almería. La vivienda consta de distribuidor, salón, cocina, un cuarto de baño, un dormitorios y terraza. El edificio se encuentra en construcción y goza de una excelente ubicación, con buenos accesos y bien comunicado. ¿Te gustaría tener más información de este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0110677/6936128_2a29e29fd97b1d29ba3daa57b7e258ccf69ce046@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almeria</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Viator</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0109390</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Casa adosada disponible en calle ctra la seu d'urgell en Ponts por 2.464€ con 80m² y una habitacion</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>¡Gran oportunidad de inversión! Se vende una vivienda en construcción paralizada en la encantadora localidad de Ponts, en la provincia de Lleida. Aunque la construcción de esta vivienda se encuentra paralizada y tiene muy poco avance, representa una excelente oportunidad para ser finalizada según tus propias preferencias y convertirse en el hogar de tus sueños. Podrás diseñar y adaptar cada detalle a tu gusto, creando un espacio acogedor y personalizado. Esta vivienda se encuentra ubicada en Ponts, una localidad con encanto y rodeada de hermosos paisajes naturales. A pesar de su estado de construcción actual, está correctamente distribuida, lo que te brinda la base perfecta para dar forma a la casa que siempre has deseado. Además, Ponts cuenta con una ubicación estratégica en la provincia de Lleida, lo que te permitirá disfrutar de un entorno tranquilo y a la vez tener acceso a todos los servicios y comodidades necesarios en tu vida diaria. No dejes pasar esta oportunidad única de adquirir una vivienda en construcción paralizada en Ponts. ¡Aprovecha para convertirla en el hogar ideal para ti y tu familia! ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0109390/7822311_1a45340eeffbfa7a94e01d8ec9910b975fe5c054@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lérida</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ponts</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABRE-00044</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Adquiere casa en c/cl pedro martínez pérez, Pinós (el)/Pinoso, por 3.500€ con 87m² y 2 habitaciones</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar piso en venta de 2 habitaciones en Pinós (el)/Pinoso? Excelente oportunidad de adquirir en propiedad este piso residencial con una superficie de 87 m² bien distribuidos en 2 habitaciones y 1 cuarto de baño ubicado en la localidad de Pinós (el)/Pinoso, provincia de Alicante. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>3500 €</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/ABRE-00044/6212_3942a3fdb73b293c2eb9ba196936225298e81f4b@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alicante</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Pinós (el)/Pinoso</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MORE-0177</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Chalet disponible en calle calle san francisco 9 en Cascante del Río por 4.000€</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar casa/chalet de 2 habitaciones en Cascante del Río de 256 metros cuadrados? Excelente oportunidad de adquirir en propiedad esta casa/chalet residencial con una superficie de 256 m² bien distribuidos en 2 habitaciones 1 cuarto de baño ubicado en la localidad de Cascante del Río, provincia de Teruel. Además cuenta con varias parcelas adyacentes sumando un total de 776m² ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>4000 €</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/MORE-0177/73282_dab31b8006d1a96e149179304eed39126246046e@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Teruel</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Cascante del Río</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156602</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Venta de piso en calle sau 5, Lerma, de 113m² y 2 habitaciones</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156602/7585871_d5503c6cb0f511e6a383bd888e408254a7ab5c72@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156600</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Venta de piso en c/sau 5 (Lerma) con 117m² y 2 habitaciones</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156600/7526398_30df5900ab6a71955ed0eaba46fa3b416b3273b1@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156601</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Venta de piso de 117m² y 2 habitaciones en calle sau 5 en Lerma</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156601/7526466_30df5900ab6a71955ed0eaba46fa3b416b3273b1@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156484</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Piso en venta de 122m² y 3 habitaciones en c/sau 5, Lerma</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156484/7377822_6786c00b838b3cde9e38ebbc71864e9a2919624a@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LARE-002447</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Piso en venta por 7.000€ con 90m² y 3 habitaciones en c/la viña (Aller)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar piso en venta de 3 dormitorios en Aller? Excelente oportunidad de adquirir en propiedad este piso residencial con una superficie de 90m² muy bien distribuidos en 3 dormitorios y 1 cuarto de baño ubicado en la localidad de Aller, provincia de Asturias. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal (www.portalnow.com) es una plataforma donde podrás encontrar activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Ponemos a tu disposición más de 10.000 activos para que tú solo te preocupes por buscar aquel que más se adapta a tus deseos y necesidades. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>7000 €</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/LARE-002447/327873_c84e051d65fca79523294e5bd82b83631e5349a3@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Asturias</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Aller</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KIRE-0810</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Venta de chalet en c/calle baluarte nº 17 (antes nº 21), Martos, de 103m²</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar casa/chalet para reformar de 4 habitaciones en Martos de 103 metros cuadrados? Excelente oportunidad de adquirir en propiedad esta casa/chalet para reformar con una superficie de 103 m² bien distribuidos en 4 habitaciones 1 cuarto de baño ubicado en la localidad de Martos, provincia de Jaén. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.Aprovecha la oportunidad, por la compra de tu vivienda llévate un cheque regalo de 500/1000/1500€ * para comprar lo que quieras en Mediamarkt y acondicionarla con lo necesario para este verano *Consultar condiciones.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>7400 €</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/KIRE-0810/70952_384de19b00841f3f51a1e114f6197879644dfdd2@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jaén</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Martos</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0108834</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Venta de casa adosada en calle palencia (Calvarrasa de Abajo) por 7.735€ de 80m² y 1 habitacion</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>¿Buscas tu nuevo hogar? Nosotros lo tenemos CONSTRUCCIÓN OBRA PARADA: Excelente oportunidad de adquirir esta edificación diáfana pendiente de acondicionar ubicada en la localidad de Calvarrasa de Abajo (Salamanca). Muy bien comunicado por la N-501, A-50 y carreteras interurbanas a tan solo 10 minutos de Salamanca. Dispone de todos los servicios necesarios como farmacias, pequeño comercio de proximidad y centro de salud. ¿Quieres más información sobre este inmueble? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>7735 €</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0108834/5360494_7fc57a7856dfbcaa7f08ab37d5d2d1dd8b4f016c@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salamanca</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calvarrasa de Abajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0137805</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Casa adosada a la venta en calle seña-el mirador 26 en Limpias por 8.300€ de 174m² y 5 habitaciones</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar una casa adosada en venta de Limpias? Nosotros la tenemos. Excelente oportunidad de adquirir en propiedad esta casa adosada bien distribuida en cinco habitaciones y dos cuartos de baño ,ubicada en la localidad de Limpias, provincia de Cantabria. Viviendas adosadas con buenas calidades y en buenas condiciones. Suelos de gres, garaje con portón mecanizado, doble acristalamiento, pre-instalación de calefacción, y espectaculares vistas al mar. Urbanización en zona residencial consolidada perfectamente comunicada a tan sólo 6 km del núcleo urbano de Limpias, dónde disponer de todos los servicios y equipamientos ( parques, centros educativos y deportivos, comercios, etc.) Tan sólo 7 km separan la urbanización de la playa de La Salvé de Laredo, la cual podrás divisar desde las propias viviendas. Localidad a tan solo 46 km de Santander y 61 km de Bilbao. Perfectamente comunicada por la autopista A-8. Limpias es un municipio y localidad de la comunidad autónoma de Cantabria y situado en el curso bajo del valle del río Asón. Limita con los municipios de Voto y Colindres al oeste, Laredo al norte, Liendo al este y Ampuero al sur. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>8300 €</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0137805/9613187_07304440867010b03216eeb4a47614459353d1a6@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cantabria</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Limpias</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0137806</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Piso en venta en calle seña-el mirador 1 (Limpias) por 8.300€ con 174m² y 3 habitaciones</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>"¿Quieres comprar piso en venta de Limpias? Excelente oportunidad de adquirir en propiedad este piso residencial bien distribuido ubicado en la localidad de Limpias, provincia de Cantabria. Promoción en estado de obra parada en construcción. Urbanización en zona residencial consolidada perfectamente comunicada a tan sólo 6 km del núcleo urbano de Limpias, dónde disponer de todos los servicios y equipamientos ( parques, centros educativos y deportivos, comercios, etc.) Tan sólo 7 km separan la urbanización de la playa de La Salvé de Laredo, la cual podrás divisar desde las propias viviendas. Localidad a tan solo 46 km de Santander y 61 km de Bilbao. Perfectamente comunicada por la autopista A-8. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia."</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>8300 €</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0137806/6681992_60dbb2555dfdceadadcc19e8bba19a3490955a45@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cantabria</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Limpias</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0137796</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Piso en venta en c/seña-el mirador 23 (Limpias) por 8.300€ con 289m² y cuatro habitaciones</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Los activos de este propietario están sujetos a un periodo de garantía de transparencia de 12 días naturales (20 días si el precio del inmueble es igual o superior a los 500.000 €) desde su publicación o cualquier modificación de precio. Una vez finalizado el plazo anterior: i) si se ha presentado una única oferta se informará al interesado de la aceptación o denegación de su oferta ii) si se ha presentado más de una oferta se iniciará automáticamente un proceso competitivo entre los distintos ofertantes, donde el interesado puede mejorar la oferta realizada durante el periodo de transparencia. En el caso de que el inmueble no estuviera ya sujeto al periodo de transparencia, la oferta podría ser sancionada por la propiedad antes de la finalización de dicho plazo. ¿Quieres comprar una casa adosada en venta de Limpias? Nosotros la tenemos. Excelente oportunidad de adquirir en propiedad esta casa adosada bien distribuida en cuatro habitaciones y 4 cuartos de baño ,ubicada en la localidad de Limpias, provincia de Cantabria. Viviendas adosadas con buenas calidades y en buenas condiciones. Suelos de gres, garaje con portón mecanizado, doble acristalamiento, pre-instalación de calefacción, y espectaculares vistas al mar. Urbanización en zona residencial consolidada perfectamente comunicada a tan sólo 6 km del núcleo urbano de Limpias, dónde disponer de todos los servicios y equipamientos ( parques, centros educativos y deportivos, comercios, etc.) Tan sólo 7 km separan la urbanización de la playa de La Salvé de Laredo, la cual podrás divisar desde las propias viviendas. Localidad a tan solo 46 km de Santander y 61 km de Bilbao. Perfectamente comunicada por la autopista A-8. Limpias es un municipio y localidad de la comunidad autónoma de Cantabria y situado en el curso bajo del valle del río Asón. Limita con los municipios de Voto y Colindres al oeste, Laredo al norte, Liendo al este y Ampuero al sur. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>8300 €</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0137796/9556735_a4a4d9a5865029dc2da791526a7bbeba5aabb95e@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cantabria</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Limpias</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BORE-0106</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Chalet disponible por 9.000€ en calle calle ermita 40 (Valdeverdeja)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar casa/chalet de 2 habitaciones en Valdeverdeja de 100 metros cuadrados? Excelente oportunidad de adquirir en propiedad esta casa/chalet residencial con una superficie de 100 m² bien distribuidos en 2 habitaciones 2 cuartos de baño ubicado en la localidad de Valdeverdeja, provincia de Toledo. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>9000 €</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/BORE-0106/265537_150529f349d001d6f4d9f308c5830d5b0d604bb5@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toledo</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Valdeverdeja</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0108874</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Casa adosada en venta por 9.009€ de 80m² y una habitacion en calle palencia (Calvarrasa de Abajo)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>¿Buscas tu nueva propiedad? Nosotros la tenemos. CONSTRUCCIÓN OBRA PARADA: Excelente oportunidad de adquirir esta vivienda, garaje y trastero ubicados en la localidad de Calvarrasa de Abajo (Salamanca). La propiedad en venta se encuentra en una zona residencial tranquila y acogedora en Calvarrasa de Abajo, un municipio situado en la provincia de Salamanca, en la comunidad autónoma de Castilla y León. Muy bien comunicada por la N-501, A-50 y carreteras interurbanas a tan solo 10 minutos de Salamanca. El entorno de la propiedad es ideal para aquellos que buscan vivir en un lugar tranquilo y seguro, con acceso a una amplia variedad de servicios y comodidades. Calvarrasa de Abajo cuenta con una buena infraestructura y una amplia gama de servicios. Salamanca es conocida por su patrimonio histórico y cultural, sus museos y su animada vida nocturna. La ciudad cuenta con una amplia variedad de servicios y comodidades, incluyendo tiendas, restaurantes, cafeterías, bares, centros comerciales y mucho más. Además, la propiedad se encuentra cerca de la autopista A-50, lo que permite un fácil acceso a otras ciudades de la zona, como Ávila y Valladolid. Dispone de todos los servicios públicos o privados necesarios como pequeño comercio de proximidad, farmacias y centro de salud. ¿Quieres más información sobre esta propiedad? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0108874/7201304_7fc57a7856dfbcaa7f08ab37d5d2d1dd8b4f016c@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salamanca</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calvarrasa de Abajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCRE-0096</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Venta de piso por 8.500€ de 178m² y cuatro habitaciones en calle corcoles, Calasparra</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>¿Buscas comprar casa en venta de 4 habitaciones en Calasparra? Te ofrecemos esta excelente oportunidad de adquirir en propiedad este Piso residencial con una superficie de 178 m² bien distribuidos en 4 habitaciones y 2 cuartos de baño ubicado en la localidad de Calasparra, provincia de Murcia. ¿Te gustaría recibir más información sobre este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra.. . tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.Aprovecha la oportunidad, por la compra de tu vivienda llévate un cheque regalo de 500/1000/1500€ * para comprar lo que quieras en Mediamarkt y acondicionarla con lo necesario para este verano *Consultar condiciones.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>8500 €</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/CCRE-0096/26082_07d9a25aea0ea803b4c8f8afecf9126cca7bd26e@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Murcia</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Calasparra</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156564</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Piso a la venta de 93m² y 2 habitaciones en calle sau 5 en Lerma</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156564/6356102_5ecfadadc67cf32a0c4b830e72f0546fda124760@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156565</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Piso a la venta en c/sau 5 (Lerma) de 93m² y 2 habitaciones</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156565/6354513_a6822cc9b96af3ffb530663b35a9cbfcc7091c1a@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156438</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Piso en venta en calle sau 5 (Lerma) de 94m² y 2 habitaciones</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156438/7792907_9743e2639f3fdc6995dafc232a5998e2c08f8d58@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156439</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Compra piso de 93m² y 2 habitaciones en calle sau 5, Lerma</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156439/7524466_30df5900ab6a71955ed0eaba46fa3b416b3273b1@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156514</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Piso disponible con 94m² y 2 habitaciones en calle sau 5 (Lerma)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156514/7531449_30df5900ab6a71955ed0eaba46fa3b416b3273b1@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156529</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Venta de piso en calle sau 5, Lerma, con 94m² y 2 habitaciones</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156529/7533720_30df5900ab6a71955ed0eaba46fa3b416b3273b1@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156531</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Venta de piso en c/sau 5 en Lerma de 94m² y 2 habitaciones</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156531/7531734_30df5900ab6a71955ed0eaba46fa3b416b3273b1@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156533</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Se vende piso en c/sau 5 en Lerma de 94m² y 2 habitaciones</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156533/7524103_476bc8543ab5f20d1f13eadab2f4d59ce0a0ce99@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156548</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Venta de piso en calle sau 5 en Lerma de 93m² y 2 habitaciones</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156548/7524774_30df5900ab6a71955ed0eaba46fa3b416b3273b1@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156550</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Piso en venta en calle sau 5 en Lerma de 93m² y 2 habitaciones</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156550/7534320_30df5900ab6a71955ed0eaba46fa3b416b3273b1@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156551</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Descubre piso en c/sau 5 (Lerma) de 93m² y 2 habitaciones</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156551/7534097_30df5900ab6a71955ed0eaba46fa3b416b3273b1@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156556</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Venta de piso con 93m² y 2 habitaciones en c/sau 5 en Lerma</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156556/7534362_30df5900ab6a71955ed0eaba46fa3b416b3273b1@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156558</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Venta de piso de 93m² y 2 habitaciones en calle sau 5 (Lerma)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156558/7526013_30df5900ab6a71955ed0eaba46fa3b416b3273b1@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0156563</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Descubre piso con 93m² y 2 habitaciones en c/sau 5 en Lerma</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar un apartamento en promoción en estado de obra parada en Lerma? Nosotros lo tenemos. Promoción en estado de obra parada. Se estima un porcentaje de ejecución de un 70%. Inmejorable oportunidad de inversión. Excelente oportunidad de adquirir en propiedad este apartamento residencial bien distribuido , ubicado en la localidad de Lerma, provincia de Burgos. Promoción situada en zona residencial en expansión con predominio de viviendas unifamiliares en entorno rural tranquilo. Situada junto a la carretera BU-904 que la comunica con el núcleo urbano de Lerma, a tan sólo 2,6 km, dónde disfrutar y disponer de servicios y equipamientos cómo comercios, parques, hoteles, restaurantes, centro de salud, puestos de policía y bomberos, colegios , etc. Lerma se sitúa a tan sólo 40 km de Burgos sobre un altozano que domina la vega del río Arlanza, perfectamente comunicada por la autopista A-1. También podemos acceder al centro de Madrid por dicha autopista, a tan sólo 210 km. Cuenta con estación de autobuses para facilitar las comunicaciones. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Precio a consultar</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0156563/7526726_474ee8966afdd969f3fe66b9ffc03bb94e60e2d3@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burgos</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lerma</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JARE-0618</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Descubre casa por 10.500€ con 131m² y una habitacion en c/de la fuente - castellnou, Cervera</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>131m2 para construir tu proyecto rural. Podras respirar tranquilidad y calidad de vida. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>10.500 €</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/JARE-0618/137105_4d46176ad1f3d39e5b5d6f0b8bfb2777f2fa5479@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lérida</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Cervera</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCRE-0098</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Se vende piso por 9.500€ de 85m² y 2 habitaciones en calle peligro en Moratalla</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>¿Buscas comprar casa en venta de 2 habitaciones en Moratalla? Te ofrecemos esta excelente oportunidad de adquirir en propiedad este Piso residencial con una superficie de 85,15 m² bien distribuidos en 2 habitaciones y 1 cuarto de baño ubicado en la localidad de Moratalla, provincia de Murcia. ¿Te gustaría recibir más información sobre este piso? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra.. . tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.Aprovecha la oportunidad, por la compra de tu vivienda llévate un cheque regalo de 500/1000/1500€ * para comprar lo que quieras en Mediamarkt y acondicionarla con lo necesario para este verano *Consultar condiciones.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>9500 €</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/CCRE-0098/5731_71c344e442969a016fabcb0201bd3acdc1896e1b@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Murcia</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Moratalla</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MORE-3265</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Venta de piso por 11.000€ con 92m² y 1 habitacion en c/carretera, 15 003 1, Sallent</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Oportunidad de adquirir vivienda para reformar, cuenta con 92 m2 distribuidos en 1 habitación y 1 baño. Se encuentra en una zona muy tranquila la cual cuenta con todos los servicios y buenos accesos. No dudes en ponerte en contacto con nosotros para obtener más información. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>11.000 €</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/MORE-3265/73975_41ca0a5066354d4141053e6fecb07a77296cbc52@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Barcelona</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sallent</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MORE-3853</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Se oferta piso en calle calvo sotelo 37 bajo a en Lanzahíta por 11.000€ de 115m² y 3 habitaciones</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Se trata de un WIP con 5% construido. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>11.000 €</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/MORE-3853/464256_fd11ae24f94a8065360a1c2d5a3eaa4ba12e3fe7@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ávila</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lanzahíta</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MORE-4294</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Venta de casa adosada en calle pozorrubio (Horcajo de Santiago) por 11.000€ con 80m² y tres habitaciones</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar casa/chalet de 3 habitaciones en Horcajo de Santiago de 80 metros cuadrados? Excelente oportunidad de adquirir en propiedad esta casa/chalet residencial con una superficie de 80 m² bien distribuidos en 3 habitaciones 1 cuarto de baño ubicado en la localidad de Horcajo de Santiago, provincia de Cuenca. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>11.000 €</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/MORE-4294/244304_21549c7501fcb97928dcab0997efccad2151b9e7@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cuenca</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Horcajo de Santiago</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REMO-01763</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Venta de piso por 11.000€ de 145m² y 3 habitaciones en calle virgen de la cabeza en Peñarroya-Pueblonuevo</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>¿Buscas comprar casa adosada de 3 dormitorios en Peñarroya-Pueblonuevo? Te ofrecemos esta excelente oportunidad de adquirir en propiedad esta amplia y luminosa casa adosada, ubicada en la localidad de Peñarroya-Pueblonuevo, provincia de Córdoba, con una superficie de 145 m2 bien distribuidos en salón-comedor, 3 dormitorios, 1 baño, cocina independiente, y patio. Está equipada con chimenea. ¿Te gustaría recibir más información sobre este inmueble? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portalnow.com es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portalnow.com cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>11.000 €</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/REMO-01763/379652_18b9beafeeb0aff46fc9d85e8e3b6ee2acfe57a8@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Córdoba</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Peñarroya-Pueblonuevo</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIRE-08175</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Piso a la venta por 11.000€ con 119m² y una habitacion en calle subida de sant francesc (Tortosa)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar vivienda en venta de 1 habitaciones en Tortosa? Excelente oportunidad de adquirir en propiedad esta vivienda residencial con una superficie de 119 m² muy bien distribuidos, en 1 habitaciones y 1 cuarto de baño ubicado en la localidad de Tortosa, provincia de Tarragona. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>11.000 €</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/LIRE-08175/885463_d75ae110c76a35f77e7ef94cb0acdd6ac7035976@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tarragona</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Tortosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0135371</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Casa a la venta por 11.700€ de 88m² y tres habitaciones en calle de catalunya en Móra la Nova</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>¡Atención a todos los amantes de las reformas! Tenemos una casa con mucho potencial en venta en la localidad de Móra la Nova, provincia de Tarragona. Esta vivienda necesita una reforma integral, pero está muy bien distribuida y puede convertirse en el hogar de tus sueños con un poco de trabajo y creatividad. La casa cuenta con varios espacios amplios y luminosos, que pueden ser adaptados según tus necesidades. Además, dispone de una ubicación privilegiada en una zona tranquila de la ciudad. Móra la Nova es una ciudad con mucho encanto, rodeada de preciosos paisajes naturales y con un ambiente acogedor. Además, la ciudad está muy bien comunicada con las principales ciudades de la zona. A tan solo 30 km se encuentra la ciudad de Tarragona, una de las ciudades más importantes de Cataluña y a 50 km se encuentra la ciudad de Lleida. Además, la ciudad está situada cerca de la autopista AP-7 y la carretera nacional N-420, lo que te permitirá desplazarte con gran facilidad. Si estás buscando una oportunidad para crear la casa de tus sueños en una ciudad con mucho encanto, no lo pienses más. ¡Esta casa es para ti! ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>11.700 €</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0135371/8455675_127180b5e11d1615033c39bbcd5a19309f122505@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tarragona</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Móra la Nova</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MORE-0130</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Chalet disponible por 12.000€ en calle mayor de santa ana en Cervera del Río Alhama</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar casa/chalet de 2 habitaciones en Cervera del Rio Alhama de 105 metros cuadrados? Excelente oportunidad de adquirir en propiedad esta casa/chalet residencial con una superficie de 105 m² bien distribuidos en 2 habitaciones 1 cuarto de baño ubicado en la localidad de Cervera del Rio Alhama, provincia de La Rioja. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>12.000 €</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/MORE-0130/15684_be56c5059e9d04ea42aff7c2a00d36237899db2b@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La Rioja</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Cervera del Río Alhama</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GIRE-1111001</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Venta de casa por 12.000€ de 55m² y una habitacion en c/horno alto, Villarroya de la Sierra</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar casa/chalet de 1 habitación en Villarroya de la Sierra de 55 metros cuadrados? Excelente oportunidad de adquirir en propiedad esta casa/chalet residencial con una superficie de 55 m² bien distribuidos en 1 habitación 1 cuarto de baño ubicado en la localidad de Villarroya de la Sierra, provincia de Zaragoza. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>12.000 €</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/GIRE-1111001/105778_5a6339caf8118b9a2f5c484fa45143d9fc1ebb08@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zaragoza</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Villarroya de la Sierra</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHIRE-0749</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Se vende casa por 12.000€ de 107m² y 2 habitaciones en c/olivo, Sax</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>¿Estás interesado en comprar una casa en Sax? ¡Tenemos en exclusiva un piso para ti! Disponemos de una casa a reformar que puedes adquirir en propiedad, con una superficie de 107m² bien distribuidos en 2 dormitorios, 1 baño, salón, cocina y patio, ubicado en la localidad de Sax, provincia de Alicante. El entorno de Sax está marcado por su belleza natural. La localidad se encuentra rodeada de colinas y montañas, como la Sierra de Salinas y la Sierra del Cid. Estas montañas ofrecen oportunidades para practicar senderismo, escalada y otras actividades al aire libre. Además, en los alrededores de Sax se encuentran paisajes agrícolas con olivos y viñedos. Sax cuenta con buenas conexiones de transporte. Se puede acceder a la localidad a través de la carretera nacional N-340 y la autopista AP-7. Además, hay servicios regulares de autobuses que conectan Sax con otras ciudades cercanas. En resumen, Sax es una localidad en la provincia de Alicante que combina un entorno natural impresionante, un rico patrimonio histórico y cultural, fiestas populares, una sabrosa gastronomía y buenas conexiones de transporte. Es un lugar ideal para aquellos que deseen disfrutar de la belleza natural y sumergirse en la historia y la cultura de la región. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>12.000 €</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/CHIRE-0749/18767514_7c4b17d1eeddc9fd2a14f301b610c6fa6442be30@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alicante</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sax</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LARE-000509</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Venta de piso en c/federico garcia lorca en Toreno por 12.000€ de 57m² y 2 habitaciones</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar una vivienda en venta de 2 dormitorios en Toreno? Excelente oportunidad de adquirir en propiedad esta vivienda con una superficie de 57m² muy bien distribuidos en 2 dormitorios y 1 cuarto de baño ubicado en la localidad de Toreno, provincia de León. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal (www.portalnow.com) es una plataforma donde podrás encontrar activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Ponemos a tu disposición más de 10.000 activos para que tú solo te preocupes por buscar aquel que más se adapta a tus deseos y necesidades. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia. Aprovecha la oportunidad en PortalNow por la compra de tu vivienda y llévate un cheque regalo de 500/1000/2000€* para comprar lo que quieras en Mediamarkt *Revisar condiciones. Campaña válida hasta el 31 de marzo de 2023</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>12.000 €</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/LARE-000509/320738_f1cc73cbd346262842afd76db11069cf18320ee8@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> León</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Toreno</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KIRE-0786</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Compra chalet en calle don juan en Peal de Becerro por 12.750€</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar casa de pueblo para reformar de 4 habitaciones en Peal de Becerro de 90 metros cuadrados? Excelente oportunidad de adquirir en propiedad esta casa para reformar con una superficie de 90 m² bien distribuidos en 4 habitaciones y 2 cuartos de baño ubicado en la localidad de Peal de Becerro, provincia de Jaén. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.Aprovecha la oportunidad, por la compra de tu vivienda llévate un cheque regalo de 500/1000/1500€ * para comprar lo que quieras en Mediamarkt y acondicionarla con lo necesario para este verano *Consultar condiciones.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>12.750 €</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/KIRE-0786/56829_dbd6221e8fa65d105778c1fc33717f267ba5abfa@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jaén</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Peal de Becerro</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BORE-2353</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Descubre casa adosada en c/cl la comarcal nº 22 parecla 41, Membrío, por 13.000€ de 143m² y 4 habitaciones</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>¿Estás buscando comprar vivienda adosada de 4 habitaciónes en Membrío? Excelente oportunidad de adquirir en propiedad esta vivienda adosada residencial en venta con una superficie de 142,98 m² bien distribuidos en 4 habitaciones y 2 cuartos de baño ubicado en la localidad de Membrío, provincia de Cáceres. Se trata de un WIP con 3% construido. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>13.000 €</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/BORE-2353/140642_6fceda6fbc663160f83cc1df33488e24247f7f8f@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cáceres</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Membrío</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BORE-2354</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Casa adosada disponible por 13.000€ con 143m² y cuatro habitaciones en calle cl la comarcal nº 24 parcela 43 en Membrío</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>¿Estás buscando comprar vivienda adosada de 4 habitaciónes en Membrío? Excelente oportunidad de adquirir en propiedad esta vivienda adosada residencial en venta con una superficie de 142,98 m² bien distribuidos en 4 habitaciones y 2 cuartos de baño ubicado en la localidad de Membrío, provincia de Cáceres. Se trata de un WIP con 35% construido. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>13.000 €</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/BORE-2354/264827_2c010c7b8d0bfb4ff4cfe68205f3c750a564c74f@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cáceres</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Membrío</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MORE-1749</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Venta de piso por 13.000€ de 70m² y 3 habitaciones en calle baix (Ontinyent)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar piso de 3 habitaciones en Ontinyent de 70 metros cuadrados? Excelente oportunidad de adquirir en propiedad este piso residencial con una superficie de 70 m² bien distribuidos en 3 habitaciones 1 cuarto de baño ubicado en la localidad de Ontinyent, provincia de Valencia. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>13.000 €</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/MORE-1749/19809_54ad5d4c54ebad916b460ac7009d53d4b88c3fb7@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valencia</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ontinyent</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MORE-4253</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Se oferta casa adosada por 13.000€ con 116m² y 4 habitaciones en c/escultor querol, Ulldecona</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar casa de 4 habitaciones en Ulldecona de 116 metros cuadrados para reformar? Excelente oportunidad de adquirir en propiedad esta casa residencial con una superficie de 116 m² distribuidos actualmente en 4 habitaciones 1 cuarto de baño ubicado en la localidad de Ulldecona, provincia de Tarragona. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>13.000 €</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/MORE-4253/227319_a2ccf4b986228fb9a08406730a86351dad466a47@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tarragona</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ulldecona</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MURE-727001</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Piso a la venta por 13.000€ con 91m² y tres habitaciones en c/estacion 16 suelo unidad actuacion alarcon, Daimiel</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar piso de 3 habitaciones en Daimiel de 91 metros cuadrados? Excelente oportunidad de adquirir en propiedad este piso residencial con una superficie de 91 m² bien distribuidos en 3 habitaciones 1 cuarto de baño ubicado en la localidad de Daimiel, provincia de Ciudad Real. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>13.000 €</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/MURE-727001/309377_74027847ada1279c73c512ffa529c62b6327f9d5@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ciudad Real</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Daimiel</t>
         </is>
       </c>
     </row>

--- a/properties_data_0.xlsx
+++ b/properties_data_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,156 +488,530 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> SBRE-0124933</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Descubre suelo urbano terciario en calle carrer frederic mompou en Rubí por 3.000.000€ con 2.410m²</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Excelente oportunidad de adquirir este suelo urbano situado en el municipio de Rubí, provincia de Barcelona. Se trata de una parcela de forma rectangular, situada al sudeste del municipio de Rubí, justo al lado del Torrent dels Ajous, por donde pasa la riera de Rubí procedente de la serra dels Galliners. Se califica como suelo urbano con una superficie de 2.410 m² y con una edificabilidad que se rige según el POUM vigente, el cual permite la edificación de PB+PP en tipología residencial unifamiliar. Se encuentra muy bien situado, próximo a supermercado, parque de bomberos y al Hospital General de Catalunya, en el barrio de Mirasol, del municipio de Sant Cugat del Vallés, justo al otro lado de la riera. Dispone de muy buenos accesos y comunicaciones a la AP-7. ¿Te gustaría recibir más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.410</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.000.000 €</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://portalnow.azureedge.net/images/SBRE-0124933/7090376_e32f48d7fe8a86cdfa8ebdbff52ce2b67ea345db@2x.jpg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> Barcelona</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">
+Rubí</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> SBRE-0176724</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Se vende suelo urbanizable residencial por 2.990.000€ de 19.703m² en c/huelva de calahonda, Mijas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>¿Buscas comprar suelo urbanizable residencial en venta en el Sector SUP-C-1 en el Sector Calahonda en Mijas (Málaga)? Excelente oportunidad para invertir y adquirir en propiedad este suelo que forma parte del del proyecto de reparcelación Sector SUP C-1, cuyo uso principal es residencial plurifamiliar con 15.082,69m2 de edificabilidad ubicado en el sector Calahonda en la localidad de Mijas, provincia de Málaga. La ubicación geográfica de esta ciudad permite que este sector esté privilegiado al encontrarse a 10min en coche de la Playa de Calahonda, la Playa de Cabopino, el Puerto Deportivo de Cabopino y del Mirador de Calahonda de Mijas. Corresponde a un sector en desarrollo turístico al pie del arroyo de Calahonda en las adyacencias del Calanova Golf Club, la Urb. Princess Park y la Urb. Bonita Hills Calahonda, con un planeamiento para desarrollar 8 edificaciones con un máximo de 154 viviendas, con un promedio de 98m2 por vivienda. El terreno se encuentra bien comunicado con fácil acceso a la autopista AP-7, lo que facilita el traslado a ciudades como Fuengirola y Marbella. Además, la zona está muy bien consolidada para actividades de comercio, ocio, restauración, entre otros. ¿Te gustaría recibir más información sobre este suelo urbanizable residencial? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>19.703</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.990.000 €</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://portalnow.azureedge.net/images/SBRE-0176724/8865344_965ec6cd34ebbb541b91b302159b157f940ff0cc@2x.jpg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> Málaga</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">
+Mijas</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> SBRE-0175133</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Descubre suelo urbanizable residencial por 2.851.000€ de 409.099m² en calle puerto de la olivera, parcelas 6,7,8,10 del poligo, Murcia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>¿Buscas comprar un terreno urbanizable residencial en venta en Murcia? Excelente oportunidad de adquirir este terreno urbanizable de uso mayoritario residencial, con una edificabilidad total de 409.099m². El suelo se ubica a 1,5km de la Reserva Natural Rambla de las Grutas, cerca de la carretera principal A-30. Esta reserva cuenta con una superficie de 1.300 hectáreas y es un importante hábitat para la flora y fauna autóctonas de la zona. La rambla de las Grutas es un cauce natural de agua que se extiende desde las montañas de la sierra de Carrascoy hasta el mar Mediterráneo. En su recorrido, atraviesa un espectacular paisaje de cañones, acantilados, cuevas y barrancos. En este entorno se pueden encontrar diversas especies de plantas y animales, algunas de ellas endémicas de la región. Entre las especies de flora que se pueden encontrar en la reserva se incluyen el palmito, el lentisco, la jara pringosa, el tomillo, el romero y la lavanda. En cuanto a la fauna, destacan especies como el águila perdicera, el búho real, el zorro, la gineta, el tejón y el jabalí, entre otras. ¿Te gustaría recibir más información sobre este suelo? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>409.099</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.851.000 €</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://portalnow.azureedge.net/images/SBRE-0175133/8865282_c5cc3de7be3175e2920ba0aa56f30761b32625ac@2x.jpg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> Murcia</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">
+Murcia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0121428</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Suelo urbano residencial en venta en calle la torre. ignacio hernadez hervas, Valencia, por 2.600.000€ con 2.541m²</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>¿Buscas tu nuevo suelo urbano residencial? Nosotros lo tenemos. Excelente oportunidad de adquirir este suelo urbano residencial ubicado en Valencia. Muy bien comunicado por carretera al sur de la ciudad de Valencia en una de las zonas de máximo crecimiento y expansión. Modelo de desarrollo urbano en el que las viviendas y los equipamientos multifuncionales se integran en un entorno agrícola. Asimismo, se fomentan las relaciones sociales por medio de zonas deportivas y áreas de juegos. Dispone de todos los servicios públicos o privados necesarios como pequeño comercio de proximidad, farmacias, supermercados, centros educativos y gran oferta gastronómica. - Residencial (viviendas protegidas): 196ud. 19.600m² - Locales comerciales: 1ud. 1.700m² - Plazas de garaje: 233ud. 5.800m² Situado en un barrio tranquilo y residencial en la ciudad, a diez minutos en coche del Hospital La Fe. En esta zona existe una buena oferta de servicios. En cuanto a la comunicación, tiene fácil acceso a la V-30 y a la A-7, lo que permite una buena movilidad por carretera. Es una buena opción para aquellas personas que buscan una zona tranquila y residencial en Valencia. ¿Quieres más información sobre este suelo urbano residencial? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal (www.portalnow.com) es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.541</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.600.000 €</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0121428/6744606_8b54693460402f776c79178b6687010d38a4da58@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valencia</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Valencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PERE-005483</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Venta de finca rústica en calle las revueltas, Madrid, por 2.555.000€ de 9.667m²</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>¿Estás interesado en comprar una finca rústica en Madrid? Excelente oportunidad de adquirir en propiedad esta finca rústica con una superficie de 9.667m² ubicada en la localidad de Madrid, en zona Los Ahijones. Inmejorable ubicación, en zona en expansión. Perfecto para desarrollar una actividad industrial/logística. Zona perfectamente comunicada a través de la red de carreteras, con acceso a la M-45. La finca rústica está localizada en un área rural que se caracteriza por su belleza natural y su paisaje impresionante, está rodeado de extensas áreas verdes, colinas y bosques frondosos, lo que lo convierte en un lugar ideal para los amantes de la naturaleza y los excursionistas. Es un hermoso entorno natural que ofrece un escape tranquilo y sereno de la bulliciosa ciudad de Madrid. Además de su belleza natural, ofrece diversas instalaciones para el disfrute de los visitantes. Hay áreas designadas para hacer picnics y descansar, donde puedes relajarte y disfrutar de un almuerzo al aire libre rodeado de naturaleza. También existen zonas de recreo para niños, lo que lo convierte en un lugar ideal para visitar en familia. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.667</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.555.000 €</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/PERE-005483/992852_b4f78d9ff80c4e9eb3d7f355c18ad19e687daed6@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Madrid</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Madrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0178984</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compra suelo urbano residencial en c/sierra y liandres parcela 19 en Ruiloba por 2.500.000€ de 85.975m²</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>¿Quieres comprar suelo urbanizable en Ruiloba? Nosotros lo tenemos. Excelente oportunidad de adquirir en propiedad este suelo urbanizable ubicado en la localidad de Ruiloba, provincia de Cantabria. Dispone de buenos accesos y está bien comunicado. Suelo urbanizable situado en entorno rural de alto interés turístico-rural. Situado junto al núcleo urbano de Ruiloba dónde disponer de servicios como posadas, hostales y comercios. Situado en Barrio Sierra y Liandres, Se trata de una zona periurbana no consolidada situada entre ambos núcleos de población en los que predominan la tipología de edificios unifamiliares de dos o tres plantas sobre rasante y de antigüedad media-baja. Población bien comunicada a tan sólo 40 km del centro de Santander y cercana a la playa de Luaña (3 km). Referencia catastral: 9151558UP9095S0001UI . Edificabilidad máxima sobre rasante de 45.747,08 m2 de uso residencial. Establece un número máximo de 133 viviendas distribuidas en Planta baja, planta de piso y planta bajocubierta. Ruiloba es un municipio costero que linda con el mar Cantábrico al norte. Tres puntas destacan en el perfil costero: Miradorio, La Corneja y Ruiloba. Al este del Miradorio se encuentra la ensenada de Fonfría, donde hay una piscifactoría. ¿Quieres más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>85.975</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.500.000 €</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0178984/8864712_cf308280d09b2b96c2cd71645ac64aa30fbac911@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cantabria</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ruiloba</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0174853</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Venta de suelo urbano residencial por 2.389.000€ con 5.758m² en calle mallada (Sagunto/Sagunt)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>¿Estás pensando en comprar un suelo urbano residencial en Sagunto? Excelente oportunidad de adquirir en propiedad este suelo Urbano residencial con ordenanza aplicable como edificación colectiva - V.P.P. para uso de vivienda colectiva en altura, con una edificabilidad de 19.577m2, en la que se podría construir hasta un máximo de 199 viviendas. Ideal para invertir. Con fácil y rápido acceso a la carretera N-237. Ref. catastral: 5054301YJ3955S0001YR. Se encuentra ubicado en el centro de Sagunto, lo que proporciona acceso conveniente a una amplia gama de servicios, comodidades y puntos de interés. Esto incluye tiendas, restaurantes, supermercados, centros educativos, centros de salud y otras facilidades necesarias para la vida diaria. La cercanía a estos lugares puede ahorrar tiempo en los desplazamientos y facilitar el acceso a todo lo necesario. Zona bien conectada con autobuses y estaciones de transporte público, lo que facilita los desplazamientos dentro de Sagunto y a otras áreas cercanas. Además, estar cerca del centro de la ciudad puede brindar comodidad a la hora de utilizar el transporte privado. ¿Te gustaría recibir más información sobre este suelo urbano residencial? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.758</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.389.000 €</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0174853/8950880_046b9f7184bfd0dc8194ae5e6b79a4520fadfb50@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valencia</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sagunto/Sagunt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0180144</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Suelo urbano residencial disponible en calle libertad sector 35 sud.mompia, Santa Cruz de Bezana, por 2.360.100€ con 1.780m²</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>¿Quieres invertir en un conjunto de parcelas edificables en Santa Cruz de Bezana? Nosotros las tenemos. Excelente oportunidad de adquirir en propiedad este conjunto de parcelas urbanizables ubicado en la localidad de Santa Cruz de Bezana, provincia de Cantabria. Situado próximo al centro de la localidad dónde disfrutar de todos los servicios( colegios, parques, polideportivos) . Perfectamente comunicada por su cercanía a la estación de trenes y al acceso por la S-20 y CA-231, a tan sólo 5 minutos de la playa de San Juan de la Canal y a 11 minutos del centro de Santander. Edificabilidad : se considera, conforme al principio de mayor y mejor uso, una promoción de viviendas colectivas de 45.504 m² sobre rasante + 11.375 m² en planta sótano destinada a aparcamiento. En total, 502 viviendas de 100 m² y 502 plazas de aparcamiento de 25 m², en ambos casos con pp. de zonas comunes. Santa Cruz de Bezana limita al norte con el mar Cantábrico, al oeste con Piélagos, al sur con Camargo y al este con Santander. Está situado en la zona de influencia de la capital cántabra, por ello se encuadra a este municipio en la comarca de Santander. Cuenta con una población total de 13 292 habitantes según datos del INE para 2021. Se compone de los siguientes pueblos, pedanías o juntas vecinales, que son: Azoños, Maoño, Mompía, Prezanes, Sancibrián, Soto de la Marina y Bezana. ¿Quieres más información sobre estas parcelas? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.780</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.360.100 €</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0180144/9071914_6e3bf32ef12cf76faf37fafd950d1559051e4d86@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cantabria</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Santa Cruz de Bezana</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0177799</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Venta de suelo urbano residencial por 2.323.000€ de 14.229m² en calle paraje plan especial la manjoya-santiago en Oviedo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>¿Quieres invertir en un conjunto de parcelas urbanizables en Oviedo? Nosotros lo tenemos. Excelente oportunidad de adquirir en propiedad este conjunto de parcelas urbanizables ubicado en la localidad de Oviedo, provincia de Asturias. Situado en la zona sur de las afueras de Oviedo, en el entorno conocido como Parque Manjoya y junto al bosque de El Fulminato. Está perfectamente comunicado con el centro de Oviedo, mediante ferrocarril y estación de autobuses, por carretera ( N-630) está a tan sólo 5 km. Oportunidad para desarrollar promoción de viviendas plurifamiliares en entorno tranquilo, en expansión , en plena naturaleza ( rodeado del Bosque de la Zoreda y del Bosque El Fulminato y numerosas sendas verdes) pero a su vez muy cercano y bien comunicado con el centro de la ciudad dónde de disponer y disfrutar de todos los servicios y equipamientos ( Colegios , comercios, hostelería, museos, centros deportivos y culturales, etc. ).También podemos disfrutar de la ciudad de Gijón, ya que se sitúa a 40 km por autopista A-8 y A-66, y su zona marítimo costera y su amplia oferta cultural y de ocio. ¿Te gustaría tener más información? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra... tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.229</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.323.000 €</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0177799/9568558_228183f10c695f50dd764ce289960f60d6350a5b@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Asturias</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Oviedo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBRE-0123370</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Se oferta suelo urbanizable residencial en c/de vicalvaro (Coslada) por 2.240.000€ de 494m²</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>¿Buscas invertir en un suelo urbanizable residencial en venta en Coslada? Excelente oportunidad de adquirir en propiedad este suelo en venta ubicado en la localidad de Coslada, provincia de Madrid. Dispone de buenos accesos y está bien comunicado. La hipótesis de proyecto a edificar, teniendo en cuenta las condiciones particulares de fondo (12m) y alturas (IV y V) fijadas por la normativa, así como la edificabilidad de 3.600 del total del ámbito, y las superficies medias de la zona (programas de vivienda de 3 dormitorios y superficies entre los 70m² y los 125m²) sería viable edificar 36 viviendas de 90/100 m², así como dos plantas de sótano con garaje y trastero, más tres locales de uso comercial en el ala con frente a Avda Vicálvaro. Este suelo está situado en el casco urbano de Coslada, ideal para promociones residenciales en zona consolidada con existencia de edificaciones de diferente índole, en cuánto a alturas y antigüedad. Excelentes comunicaciones por transporte público, cerca de la estación de metro, parque, centros comerciales y colegios. ¿Te gustaría recibir más información sobre este suelo urbanizable residencial? No dudes en ponerte en contacto con nosotros. Visita sin compromiso, sin comisiones de intermediación. Más información rellenando el formulario de contacto o por teléfono. Estaremos encantados de atenderte. Portal es una plataforma inmobiliaria donde podrás acceder a miles de activos inmobiliarios de diferentes tipos como viviendas, locales comerciales, terrenos, nueva obra, tanto a nivel particular como para inversores. Portal cuenta con una amplia cartera de activos inmuebles tanto en España como en Portugal y Grecia.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.240.000 €</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://portalnow.azureedge.net/images/SBRE-0123370/8239357_2dd9470015b386b151ae449ac9283a392006260c@2x.jpg</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Madrid</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Coslada</t>
         </is>
       </c>
     </row>
